--- a/Assets/Excel/heroes.xlsx
+++ b/Assets/Excel/heroes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ulko\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857F8BA4-58A4-4192-8C6A-3125E88A963C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7440960D-DF72-4A7F-A2F3-5C1A9F91C1F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="15345" activeTab="2" xr2:uid="{235337CE-ECDE-42A1-A64F-0EF6FACAA5A0}"/>
+    <workbookView xWindow="15315" yWindow="3780" windowWidth="17460" windowHeight="15345" xr2:uid="{235337CE-ECDE-42A1-A64F-0EF6FACAA5A0}"/>
   </bookViews>
   <sheets>
     <sheet name="heroes" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
   <si>
     <t>id</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>Dr. Ulko</t>
+  </si>
+  <si>
+    <t>maxHP</t>
   </si>
 </sst>
 </file>
@@ -472,8 +475,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,22 +566,22 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE50357-FDEC-4184-84F2-3D06CC50C11F}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="2" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -586,19 +589,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -606,298 +612,341 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <f>50-D2-E2-F2</f>
         <v>20</v>
       </c>
       <c r="D2" s="2">
+        <f>50-E2-F2-G2</f>
+        <v>20</v>
+      </c>
+      <c r="E2" s="2">
         <v>2</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>8</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -906,22 +955,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A268A6-9700-4434-929A-EA2F443DA27B}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="2" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -929,19 +978,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -949,361 +1001,413 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <f>50-D2-E2-F2</f>
         <v>12</v>
       </c>
       <c r="D2" s="2">
+        <f>50-E2-F2-G2</f>
+        <v>12</v>
+      </c>
+      <c r="E2" s="2">
         <v>20</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>12</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1312,22 +1416,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA28274E-71C4-4DD3-8B98-57AD0D8E5040}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="2" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1335,19 +1439,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1355,361 +1462,413 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <f>50-D2-E2-F2</f>
         <v>10</v>
       </c>
       <c r="D2" s="2">
+        <f>50-E2-F2-G2</f>
+        <v>10</v>
+      </c>
+      <c r="E2" s="2">
         <v>12</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>20</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1718,22 +1877,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B589FFE7-B40E-4136-A8DB-8EEC7F592DFC}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="2" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1741,19 +1900,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1761,361 +1923,413 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <f>50-D2-E2-F2</f>
         <v>14</v>
       </c>
       <c r="D2" s="2">
+        <f>50-E2-F2-G2</f>
+        <v>14</v>
+      </c>
+      <c r="E2" s="2">
         <v>12</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>6</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Excel/heroes.xlsx
+++ b/Assets/Excel/heroes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ulko\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7440960D-DF72-4A7F-A2F3-5C1A9F91C1F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37B3663-606A-4FF1-909E-03228604D9FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15315" yWindow="3780" windowWidth="17460" windowHeight="15345" xr2:uid="{235337CE-ECDE-42A1-A64F-0EF6FACAA5A0}"/>
+    <workbookView xWindow="15660" yWindow="4125" windowWidth="17460" windowHeight="15345" activeTab="4" xr2:uid="{235337CE-ECDE-42A1-A64F-0EF6FACAA5A0}"/>
   </bookViews>
   <sheets>
     <sheet name="heroes" sheetId="1" r:id="rId1"/>
@@ -68,9 +68,6 @@
     <t>Ferlintokezeir</t>
   </si>
   <si>
-    <t>fortitude</t>
-  </si>
-  <si>
     <t>wisdom</t>
   </si>
   <si>
@@ -108,6 +105,9 @@
   </si>
   <si>
     <t>maxHP</t>
+  </si>
+  <si>
+    <t>strength</t>
   </si>
 </sst>
 </file>
@@ -475,7 +475,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -507,13 +507,13 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -527,35 +527,35 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
         <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -569,7 +569,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,19 +589,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -958,7 +958,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -978,19 +978,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1419,7 +1419,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1439,19 +1439,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1879,8 +1879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B589FFE7-B40E-4136-A8DB-8EEC7F592DFC}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1900,19 +1900,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">

--- a/Assets/Excel/heroes.xlsx
+++ b/Assets/Excel/heroes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ulko\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37B3663-606A-4FF1-909E-03228604D9FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59448EF7-FE22-4B73-A1D2-2C42F6D1A1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15660" yWindow="4125" windowWidth="17460" windowHeight="15345" activeTab="4" xr2:uid="{235337CE-ECDE-42A1-A64F-0EF6FACAA5A0}"/>
+    <workbookView xWindow="15315" yWindow="3780" windowWidth="17460" windowHeight="15345" activeTab="4" xr2:uid="{235337CE-ECDE-42A1-A64F-0EF6FACAA5A0}"/>
   </bookViews>
   <sheets>
     <sheet name="heroes" sheetId="1" r:id="rId1"/>
@@ -569,7 +569,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2">
         <f>50-E2-F2-G2</f>
@@ -958,7 +958,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2">
         <f>50-E2-F2-G2</f>
@@ -1419,7 +1419,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1462,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2">
         <f>50-E2-F2-G2</f>
@@ -1880,7 +1880,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2">
         <f>50-E2-F2-G2</f>

--- a/Assets/Excel/heroes.xlsx
+++ b/Assets/Excel/heroes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ulko\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59448EF7-FE22-4B73-A1D2-2C42F6D1A1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B06CF74-7EBF-4B93-B94B-7C11AD101F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15315" yWindow="3780" windowWidth="17460" windowHeight="15345" activeTab="4" xr2:uid="{235337CE-ECDE-42A1-A64F-0EF6FACAA5A0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{235337CE-ECDE-42A1-A64F-0EF6FACAA5A0}"/>
   </bookViews>
   <sheets>
     <sheet name="heroes" sheetId="1" r:id="rId1"/>
@@ -1880,7 +1880,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1927,16 +1927,16 @@
       </c>
       <c r="D2" s="2">
         <f>50-E2-F2-G2</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2">
         <v>12</v>
       </c>
       <c r="F2" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G2" s="2">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">

--- a/Assets/Excel/heroes.xlsx
+++ b/Assets/Excel/heroes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ulko\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B06CF74-7EBF-4B93-B94B-7C11AD101F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF17D15-769E-4616-8538-0E40CD9A22F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{235337CE-ECDE-42A1-A64F-0EF6FACAA5A0}"/>
   </bookViews>
@@ -1880,7 +1880,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1927,16 +1927,16 @@
       </c>
       <c r="D2" s="2">
         <f>50-E2-F2-G2</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2">
         <v>12</v>
       </c>
       <c r="G2" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">

--- a/Assets/Excel/heroes.xlsx
+++ b/Assets/Excel/heroes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ulko\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF17D15-769E-4616-8538-0E40CD9A22F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADFA3A7-792F-4AB8-B855-B11FE3BD169C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{235337CE-ECDE-42A1-A64F-0EF6FACAA5A0}"/>
+    <workbookView xWindow="4980" yWindow="4470" windowWidth="17460" windowHeight="15345" activeTab="1" xr2:uid="{235337CE-ECDE-42A1-A64F-0EF6FACAA5A0}"/>
   </bookViews>
   <sheets>
     <sheet name="heroes" sheetId="1" r:id="rId1"/>
@@ -568,8 +568,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,76 +629,264 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2">
+        <f>C2*1.1</f>
+        <v>44</v>
+      </c>
+      <c r="D3" s="2">
+        <f>D2*1.05</f>
+        <v>21</v>
+      </c>
+      <c r="E3" s="2">
+        <f>E2*1.1</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F3" s="2">
+        <f>F2*1.1</f>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G3" s="2">
+        <f>G2*1.08</f>
+        <v>21.6</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <f>B3*2</f>
+        <v>8</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" ref="C4:C11" si="0">C3*1.1</f>
+        <v>48.400000000000006</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:D11" si="1">D3*1.05</f>
+        <v>22.05</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" ref="E4:E11" si="2">E3*1.1</f>
+        <v>2.4200000000000004</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" ref="F4:F11" si="3">F3*1.1</f>
+        <v>9.6800000000000015</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" ref="G4:G11" si="4">G3*1.08</f>
+        <v>23.328000000000003</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <f t="shared" ref="B5:B11" si="5">B4*2</f>
+        <v>16</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
+        <v>53.240000000000009</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="1"/>
+        <v>23.152500000000003</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="2"/>
+        <v>2.6620000000000008</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="3"/>
+        <v>10.648000000000003</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="4"/>
+        <v>25.194240000000004</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>58.564000000000014</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="1"/>
+        <v>24.310125000000003</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="2"/>
+        <v>2.9282000000000012</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="3"/>
+        <v>11.712800000000005</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="4"/>
+        <v>27.209779200000007</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>64.420400000000015</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="1"/>
+        <v>25.525631250000004</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="2"/>
+        <v>3.2210200000000015</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="3"/>
+        <v>12.884080000000006</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="4"/>
+        <v>29.386561536000009</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <f t="shared" si="5"/>
+        <v>128</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>70.862440000000021</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="1"/>
+        <v>26.801912812500007</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="2"/>
+        <v>3.5431220000000021</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="3"/>
+        <v>14.172488000000008</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="4"/>
+        <v>31.737486458880014</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" si="5"/>
+        <v>256</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>77.948684000000029</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="1"/>
+        <v>28.142008453125008</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="2"/>
+        <v>3.8974342000000028</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="3"/>
+        <v>15.589736800000011</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="4"/>
+        <v>34.276485375590418</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <f t="shared" si="5"/>
+        <v>512</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>85.743552400000041</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="1"/>
+        <v>29.549108875781261</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="2"/>
+        <v>4.2871776200000031</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="3"/>
+        <v>17.148710480000013</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="4"/>
+        <v>37.018604205637658</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <f t="shared" si="5"/>
+        <v>1024</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>94.317907640000058</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="1"/>
+        <v>31.026564319570326</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="2"/>
+        <v>4.7158953820000038</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="3"/>
+        <v>18.863581528000015</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="4"/>
+        <v>39.98009254208867</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
@@ -958,7 +1146,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,76 +1206,264 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2">
+        <f>C2*1.1</f>
+        <v>35.200000000000003</v>
+      </c>
+      <c r="D3" s="2">
+        <f>D2*1.08</f>
+        <v>12.96</v>
+      </c>
+      <c r="E3" s="2">
+        <f>E2*1.08</f>
+        <v>21.6</v>
+      </c>
+      <c r="F3" s="2">
+        <f>F2*1.08</f>
+        <v>12.96</v>
+      </c>
+      <c r="G3" s="2">
+        <f>G2*1.05</f>
+        <v>6.3000000000000007</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <f>B3*2</f>
+        <v>8</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" ref="C4:C11" si="0">C3*1.1</f>
+        <v>38.720000000000006</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:D11" si="1">D3*1.08</f>
+        <v>13.996800000000002</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" ref="E4:E11" si="2">E3*1.08</f>
+        <v>23.328000000000003</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" ref="F4:F11" si="3">F3*1.08</f>
+        <v>13.996800000000002</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" ref="G4:G11" si="4">G3*1.05</f>
+        <v>6.6150000000000011</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <f t="shared" ref="B5:B11" si="5">B4*2</f>
+        <v>16</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
+        <v>42.592000000000013</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="1"/>
+        <v>15.116544000000003</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="2"/>
+        <v>25.194240000000004</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="3"/>
+        <v>15.116544000000003</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="4"/>
+        <v>6.9457500000000012</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>46.85120000000002</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="1"/>
+        <v>16.325867520000003</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="2"/>
+        <v>27.209779200000007</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="3"/>
+        <v>16.325867520000003</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="4"/>
+        <v>7.2930375000000014</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>51.536320000000025</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="1"/>
+        <v>17.631936921600005</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="2"/>
+        <v>29.386561536000009</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="3"/>
+        <v>17.631936921600005</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="4"/>
+        <v>7.6576893750000021</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <f t="shared" si="5"/>
+        <v>128</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>56.689952000000034</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="1"/>
+        <v>19.042491875328007</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="2"/>
+        <v>31.737486458880014</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="3"/>
+        <v>19.042491875328007</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="4"/>
+        <v>8.0405738437500034</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" si="5"/>
+        <v>256</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>62.358947200000046</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="1"/>
+        <v>20.56589122535425</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="2"/>
+        <v>34.276485375590418</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="3"/>
+        <v>20.56589122535425</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="4"/>
+        <v>8.4426025359375032</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <f t="shared" si="5"/>
+        <v>512</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>68.59484192000005</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="1"/>
+        <v>22.21116252338259</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="2"/>
+        <v>37.018604205637658</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="3"/>
+        <v>22.21116252338259</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="4"/>
+        <v>8.8647326627343794</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <f t="shared" si="5"/>
+        <v>1024</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>75.454326112000061</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="1"/>
+        <v>23.988055525253198</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="2"/>
+        <v>39.98009254208867</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="3"/>
+        <v>23.988055525253198</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="4"/>
+        <v>9.3079692958710982</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
@@ -1411,6 +1787,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="E3" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -1419,7 +1798,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1479,76 +1858,264 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2">
+        <f>C2*1.1</f>
+        <v>33</v>
+      </c>
+      <c r="D3" s="2">
+        <f>D2*1.08</f>
+        <v>10.8</v>
+      </c>
+      <c r="E3" s="2">
+        <f>E2*1.08</f>
+        <v>12.96</v>
+      </c>
+      <c r="F3" s="2">
+        <f>F2*1.08</f>
+        <v>21.6</v>
+      </c>
+      <c r="G3" s="2">
+        <f>G2*1.05</f>
+        <v>8.4</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <f>B3*2</f>
+        <v>8</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" ref="C4:C11" si="0">C3*1.1</f>
+        <v>36.300000000000004</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:D11" si="1">D3*1.08</f>
+        <v>11.664000000000001</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" ref="E4:F11" si="2">E3*1.08</f>
+        <v>13.996800000000002</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="2"/>
+        <v>23.328000000000003</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" ref="G4:G11" si="3">G3*1.05</f>
+        <v>8.82</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <f t="shared" ref="B5:B11" si="4">B4*2</f>
+        <v>16</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
+        <v>39.930000000000007</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="1"/>
+        <v>12.597120000000002</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="2"/>
+        <v>15.116544000000003</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="2"/>
+        <v>25.194240000000004</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="3"/>
+        <v>9.261000000000001</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>43.923000000000009</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="1"/>
+        <v>13.604889600000003</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="2"/>
+        <v>16.325867520000003</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="2"/>
+        <v>27.209779200000007</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="3"/>
+        <v>9.7240500000000019</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>48.315300000000015</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="1"/>
+        <v>14.693280768000005</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="2"/>
+        <v>17.631936921600005</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="2"/>
+        <v>29.386561536000009</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="3"/>
+        <v>10.210252500000003</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <f t="shared" si="4"/>
+        <v>128</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>53.146830000000023</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="1"/>
+        <v>15.868743229440007</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="2"/>
+        <v>19.042491875328007</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="2"/>
+        <v>31.737486458880014</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="3"/>
+        <v>10.720765125000003</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" si="4"/>
+        <v>256</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>58.461513000000032</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="1"/>
+        <v>17.138242687795209</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="2"/>
+        <v>20.56589122535425</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="2"/>
+        <v>34.276485375590418</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="3"/>
+        <v>11.256803381250004</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <f t="shared" si="4"/>
+        <v>512</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>64.307664300000042</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="1"/>
+        <v>18.509302102818829</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="2"/>
+        <v>22.21116252338259</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="2"/>
+        <v>37.018604205637658</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="3"/>
+        <v>11.819643550312504</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <f t="shared" si="4"/>
+        <v>1024</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>70.738430730000047</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="1"/>
+        <v>19.990046271044335</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="2"/>
+        <v>23.988055525253198</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="2"/>
+        <v>39.98009254208867</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="3"/>
+        <v>12.41062572782813</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
@@ -1879,8 +2446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B589FFE7-B40E-4136-A8DB-8EEC7F592DFC}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1940,76 +2507,264 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2">
+        <f>C2*1.1</f>
+        <v>37.400000000000006</v>
+      </c>
+      <c r="D3" s="2">
+        <f>D2*1.08</f>
+        <v>8.64</v>
+      </c>
+      <c r="E3" s="2">
+        <f>E2*1.08</f>
+        <v>15.120000000000001</v>
+      </c>
+      <c r="F3" s="2">
+        <f>F2*1.08</f>
+        <v>12.96</v>
+      </c>
+      <c r="G3" s="2">
+        <f>G2*1.1</f>
+        <v>17.600000000000001</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <f>B3*2</f>
+        <v>8</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" ref="C4:C11" si="0">C3*1.1</f>
+        <v>41.140000000000008</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:F11" si="1">D3*1.08</f>
+        <v>9.3312000000000008</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="1"/>
+        <v>16.329600000000003</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="1"/>
+        <v>13.996800000000002</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" ref="G4:G11" si="2">G3*1.1</f>
+        <v>19.360000000000003</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <f t="shared" ref="B5:B11" si="3">B4*2</f>
+        <v>16</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
+        <v>45.254000000000012</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="1"/>
+        <v>10.077696000000001</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="1"/>
+        <v>17.635968000000005</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="1"/>
+        <v>15.116544000000003</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="2"/>
+        <v>21.296000000000006</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>49.779400000000017</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="1"/>
+        <v>10.883911680000002</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="1"/>
+        <v>19.046845440000006</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="1"/>
+        <v>16.325867520000003</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="2"/>
+        <v>23.42560000000001</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>54.757340000000021</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="1"/>
+        <v>11.754624614400003</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="1"/>
+        <v>20.570593075200009</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="1"/>
+        <v>17.631936921600005</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="2"/>
+        <v>25.768160000000012</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <f t="shared" si="3"/>
+        <v>128</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>60.23307400000003</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="1"/>
+        <v>12.694994583552004</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="1"/>
+        <v>22.216240521216012</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="1"/>
+        <v>19.042491875328007</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="2"/>
+        <v>28.344976000000017</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" si="3"/>
+        <v>256</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>66.256381400000038</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="1"/>
+        <v>13.710594150236165</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="1"/>
+        <v>23.993539762913294</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="1"/>
+        <v>20.56589122535425</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="2"/>
+        <v>31.179473600000023</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <f t="shared" si="3"/>
+        <v>512</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>72.882019540000044</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="1"/>
+        <v>14.80744168225506</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="1"/>
+        <v>25.913022943946359</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="1"/>
+        <v>22.21116252338259</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="2"/>
+        <v>34.297420960000025</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>80.17022149400006</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="1"/>
+        <v>15.992037016835466</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="1"/>
+        <v>27.986064779462069</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="1"/>
+        <v>23.988055525253198</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="2"/>
+        <v>37.72716305600003</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>

--- a/Assets/Excel/heroes.xlsx
+++ b/Assets/Excel/heroes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ulko\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADFA3A7-792F-4AB8-B855-B11FE3BD169C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B096D9E-0E7E-4578-BC3C-6139D652C064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="4470" windowWidth="17460" windowHeight="15345" activeTab="1" xr2:uid="{235337CE-ECDE-42A1-A64F-0EF6FACAA5A0}"/>
+    <workbookView xWindow="14100" yWindow="2910" windowWidth="19845" windowHeight="16785" activeTab="1" xr2:uid="{235337CE-ECDE-42A1-A64F-0EF6FACAA5A0}"/>
   </bookViews>
   <sheets>
     <sheet name="heroes" sheetId="1" r:id="rId1"/>
@@ -569,7 +569,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,8 +615,7 @@
         <v>40</v>
       </c>
       <c r="D2" s="2">
-        <f>50-E2-F2-G2</f>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2">
         <v>2</v>
@@ -641,7 +640,7 @@
       </c>
       <c r="D3" s="2">
         <f>D2*1.05</f>
-        <v>21</v>
+        <v>14.700000000000001</v>
       </c>
       <c r="E3" s="2">
         <f>E2*1.1</f>
@@ -670,7 +669,7 @@
       </c>
       <c r="D4" s="2">
         <f t="shared" ref="D4:D11" si="1">D3*1.05</f>
-        <v>22.05</v>
+        <v>15.435000000000002</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" ref="E4:E11" si="2">E3*1.1</f>
@@ -699,7 +698,7 @@
       </c>
       <c r="D5" s="2">
         <f t="shared" si="1"/>
-        <v>23.152500000000003</v>
+        <v>16.206750000000003</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="2"/>
@@ -728,7 +727,7 @@
       </c>
       <c r="D6" s="2">
         <f t="shared" si="1"/>
-        <v>24.310125000000003</v>
+        <v>17.017087500000002</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="2"/>
@@ -757,7 +756,7 @@
       </c>
       <c r="D7" s="2">
         <f t="shared" si="1"/>
-        <v>25.525631250000004</v>
+        <v>17.867941875000003</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="2"/>
@@ -786,7 +785,7 @@
       </c>
       <c r="D8" s="2">
         <f t="shared" si="1"/>
-        <v>26.801912812500007</v>
+        <v>18.761338968750003</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="2"/>
@@ -815,7 +814,7 @@
       </c>
       <c r="D9" s="2">
         <f t="shared" si="1"/>
-        <v>28.142008453125008</v>
+        <v>19.699405917187505</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="2"/>
@@ -844,7 +843,7 @@
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
-        <v>29.549108875781261</v>
+        <v>20.684376213046882</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="2"/>
@@ -873,7 +872,7 @@
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
-        <v>31.026564319570326</v>
+        <v>21.718595023699226</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="2"/>
@@ -1146,7 +1145,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1192,8 +1191,7 @@
         <v>32</v>
       </c>
       <c r="D2" s="2">
-        <f>50-E2-F2-G2</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2">
         <v>20</v>
@@ -1218,7 +1216,7 @@
       </c>
       <c r="D3" s="2">
         <f>D2*1.08</f>
-        <v>12.96</v>
+        <v>8.64</v>
       </c>
       <c r="E3" s="2">
         <f>E2*1.08</f>
@@ -1247,7 +1245,7 @@
       </c>
       <c r="D4" s="2">
         <f t="shared" ref="D4:D11" si="1">D3*1.08</f>
-        <v>13.996800000000002</v>
+        <v>9.3312000000000008</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" ref="E4:E11" si="2">E3*1.08</f>
@@ -1276,7 +1274,7 @@
       </c>
       <c r="D5" s="2">
         <f t="shared" si="1"/>
-        <v>15.116544000000003</v>
+        <v>10.077696000000001</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="2"/>
@@ -1305,7 +1303,7 @@
       </c>
       <c r="D6" s="2">
         <f t="shared" si="1"/>
-        <v>16.325867520000003</v>
+        <v>10.883911680000002</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="2"/>
@@ -1334,7 +1332,7 @@
       </c>
       <c r="D7" s="2">
         <f t="shared" si="1"/>
-        <v>17.631936921600005</v>
+        <v>11.754624614400003</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="2"/>
@@ -1363,7 +1361,7 @@
       </c>
       <c r="D8" s="2">
         <f t="shared" si="1"/>
-        <v>19.042491875328007</v>
+        <v>12.694994583552004</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="2"/>
@@ -1392,7 +1390,7 @@
       </c>
       <c r="D9" s="2">
         <f t="shared" si="1"/>
-        <v>20.56589122535425</v>
+        <v>13.710594150236165</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="2"/>
@@ -1421,7 +1419,7 @@
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
-        <v>22.21116252338259</v>
+        <v>14.80744168225506</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="2"/>
@@ -1450,7 +1448,7 @@
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
-        <v>23.988055525253198</v>
+        <v>15.992037016835466</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="2"/>
@@ -1798,7 +1796,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1844,8 +1842,7 @@
         <v>30</v>
       </c>
       <c r="D2" s="2">
-        <f>50-E2-F2-G2</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2">
         <v>12</v>
@@ -1870,7 +1867,7 @@
       </c>
       <c r="D3" s="2">
         <f>D2*1.08</f>
-        <v>10.8</v>
+        <v>12.96</v>
       </c>
       <c r="E3" s="2">
         <f>E2*1.08</f>
@@ -1899,7 +1896,7 @@
       </c>
       <c r="D4" s="2">
         <f t="shared" ref="D4:D11" si="1">D3*1.08</f>
-        <v>11.664000000000001</v>
+        <v>13.996800000000002</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" ref="E4:F11" si="2">E3*1.08</f>
@@ -1928,7 +1925,7 @@
       </c>
       <c r="D5" s="2">
         <f t="shared" si="1"/>
-        <v>12.597120000000002</v>
+        <v>15.116544000000003</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="2"/>
@@ -1957,7 +1954,7 @@
       </c>
       <c r="D6" s="2">
         <f t="shared" si="1"/>
-        <v>13.604889600000003</v>
+        <v>16.325867520000003</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="2"/>
@@ -1986,7 +1983,7 @@
       </c>
       <c r="D7" s="2">
         <f t="shared" si="1"/>
-        <v>14.693280768000005</v>
+        <v>17.631936921600005</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="2"/>
@@ -2015,7 +2012,7 @@
       </c>
       <c r="D8" s="2">
         <f t="shared" si="1"/>
-        <v>15.868743229440007</v>
+        <v>19.042491875328007</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="2"/>
@@ -2044,7 +2041,7 @@
       </c>
       <c r="D9" s="2">
         <f t="shared" si="1"/>
-        <v>17.138242687795209</v>
+        <v>20.56589122535425</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="2"/>
@@ -2073,7 +2070,7 @@
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
-        <v>18.509302102818829</v>
+        <v>22.21116252338259</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="2"/>
@@ -2102,7 +2099,7 @@
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
-        <v>19.990046271044335</v>
+        <v>23.988055525253198</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="2"/>
@@ -2447,7 +2444,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2493,8 +2490,7 @@
         <v>34</v>
       </c>
       <c r="D2" s="2">
-        <f>50-E2-F2-G2</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E2" s="2">
         <v>14</v>
@@ -2519,7 +2515,7 @@
       </c>
       <c r="D3" s="2">
         <f>D2*1.08</f>
-        <v>8.64</v>
+        <v>5.4</v>
       </c>
       <c r="E3" s="2">
         <f>E2*1.08</f>
@@ -2548,7 +2544,7 @@
       </c>
       <c r="D4" s="2">
         <f t="shared" ref="D4:F11" si="1">D3*1.08</f>
-        <v>9.3312000000000008</v>
+        <v>5.8320000000000007</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="1"/>
@@ -2577,7 +2573,7 @@
       </c>
       <c r="D5" s="2">
         <f t="shared" si="1"/>
-        <v>10.077696000000001</v>
+        <v>6.298560000000001</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="1"/>
@@ -2606,7 +2602,7 @@
       </c>
       <c r="D6" s="2">
         <f t="shared" si="1"/>
-        <v>10.883911680000002</v>
+        <v>6.8024448000000017</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="1"/>
@@ -2635,7 +2631,7 @@
       </c>
       <c r="D7" s="2">
         <f t="shared" si="1"/>
-        <v>11.754624614400003</v>
+        <v>7.3466403840000023</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="1"/>
@@ -2664,7 +2660,7 @@
       </c>
       <c r="D8" s="2">
         <f t="shared" si="1"/>
-        <v>12.694994583552004</v>
+        <v>7.9343716147200034</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="1"/>
@@ -2693,7 +2689,7 @@
       </c>
       <c r="D9" s="2">
         <f t="shared" si="1"/>
-        <v>13.710594150236165</v>
+        <v>8.5691213438976046</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
@@ -2722,7 +2718,7 @@
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
-        <v>14.80744168225506</v>
+        <v>9.2546510514094145</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="1"/>
@@ -2751,7 +2747,7 @@
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
-        <v>15.992037016835466</v>
+        <v>9.9950231355221675</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="1"/>

--- a/Assets/Excel/heroes.xlsx
+++ b/Assets/Excel/heroes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ulko\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B096D9E-0E7E-4578-BC3C-6139D652C064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07571E65-AA02-459C-84D3-5ECFA4DCF96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14100" yWindow="2910" windowWidth="19845" windowHeight="16785" activeTab="1" xr2:uid="{235337CE-ECDE-42A1-A64F-0EF6FACAA5A0}"/>
+    <workbookView xWindow="630" yWindow="2655" windowWidth="33915" windowHeight="15150" xr2:uid="{235337CE-ECDE-42A1-A64F-0EF6FACAA5A0}"/>
   </bookViews>
   <sheets>
     <sheet name="heroes" sheetId="1" r:id="rId1"/>
@@ -475,8 +475,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,7 +538,7 @@
         <v>15</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -552,7 +552,7 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
@@ -568,7 +568,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Excel/heroes.xlsx
+++ b/Assets/Excel/heroes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ulko\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07571E65-AA02-459C-84D3-5ECFA4DCF96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42441925-C1FA-4B71-887B-E1369C7963FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="2655" windowWidth="33915" windowHeight="15150" xr2:uid="{235337CE-ECDE-42A1-A64F-0EF6FACAA5A0}"/>
+    <workbookView xWindow="1395" yWindow="3465" windowWidth="33915" windowHeight="15150" activeTab="4" xr2:uid="{235337CE-ECDE-42A1-A64F-0EF6FACAA5A0}"/>
   </bookViews>
   <sheets>
     <sheet name="heroes" sheetId="1" r:id="rId1"/>
@@ -475,7 +475,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -569,7 +569,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,7 +632,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2">
         <f>C2*1.1</f>
@@ -660,8 +660,8 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>B3*2</f>
-        <v>8</v>
+        <f>ROUND(B3*1.2+6, 0)</f>
+        <v>13</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" ref="C4:C11" si="0">C3*1.1</f>
@@ -689,8 +689,8 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <f t="shared" ref="B5:B11" si="5">B4*2</f>
-        <v>16</v>
+        <f t="shared" ref="B5:B11" si="5">ROUND(B4*1.2+4, 0)</f>
+        <v>20</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="0"/>
@@ -719,7 +719,7 @@
       </c>
       <c r="B6" s="2">
         <f t="shared" si="5"/>
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
@@ -748,7 +748,7 @@
       </c>
       <c r="B7" s="2">
         <f t="shared" si="5"/>
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
@@ -777,7 +777,7 @@
       </c>
       <c r="B8" s="2">
         <f t="shared" si="5"/>
-        <v>128</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="0"/>
@@ -806,7 +806,7 @@
       </c>
       <c r="B9" s="2">
         <f t="shared" si="5"/>
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
@@ -835,7 +835,7 @@
       </c>
       <c r="B10" s="2">
         <f t="shared" si="5"/>
-        <v>512</v>
+        <v>81</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
@@ -863,8 +863,8 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <f t="shared" si="5"/>
-        <v>1024</v>
+        <f>ROUND(B10*1.2+3, 0)</f>
+        <v>100</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
@@ -1145,7 +1145,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1208,7 +1208,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2">
         <f>C2*1.1</f>
@@ -1236,8 +1236,8 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>B3*2</f>
-        <v>8</v>
+        <f>ROUND(B3*1.2+6, 0)</f>
+        <v>13</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" ref="C4:C11" si="0">C3*1.1</f>
@@ -1265,8 +1265,8 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <f t="shared" ref="B5:B11" si="5">B4*2</f>
-        <v>16</v>
+        <f t="shared" ref="B5:B11" si="5">ROUND(B4*1.2+4, 0)</f>
+        <v>20</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="0"/>
@@ -1295,7 +1295,7 @@
       </c>
       <c r="B6" s="2">
         <f t="shared" si="5"/>
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="B7" s="2">
         <f t="shared" si="5"/>
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="B8" s="2">
         <f t="shared" si="5"/>
-        <v>128</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="0"/>
@@ -1382,7 +1382,7 @@
       </c>
       <c r="B9" s="2">
         <f t="shared" si="5"/>
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="B10" s="2">
         <f t="shared" si="5"/>
-        <v>512</v>
+        <v>81</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
@@ -1439,8 +1439,8 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <f t="shared" si="5"/>
-        <v>1024</v>
+        <f>ROUND(B10*1.2+3, 0)</f>
+        <v>100</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
@@ -1796,7 +1796,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1859,7 +1859,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2">
         <f>C2*1.1</f>
@@ -1887,8 +1887,8 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>B3*2</f>
-        <v>8</v>
+        <f>ROUND(B3*1.2+6, 0)</f>
+        <v>13</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" ref="C4:C11" si="0">C3*1.1</f>
@@ -1916,8 +1916,8 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <f t="shared" ref="B5:B11" si="4">B4*2</f>
-        <v>16</v>
+        <f t="shared" ref="B5:B11" si="4">ROUND(B4*1.2+4, 0)</f>
+        <v>20</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="0"/>
@@ -1946,7 +1946,7 @@
       </c>
       <c r="B6" s="2">
         <f t="shared" si="4"/>
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
@@ -1975,7 +1975,7 @@
       </c>
       <c r="B7" s="2">
         <f t="shared" si="4"/>
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="B8" s="2">
         <f t="shared" si="4"/>
-        <v>128</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="0"/>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="B9" s="2">
         <f t="shared" si="4"/>
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
@@ -2062,7 +2062,7 @@
       </c>
       <c r="B10" s="2">
         <f t="shared" si="4"/>
-        <v>512</v>
+        <v>81</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
@@ -2090,8 +2090,8 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <f t="shared" si="4"/>
-        <v>1024</v>
+        <f>ROUND(B10*1.2+3, 0)</f>
+        <v>100</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
@@ -2443,8 +2443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B589FFE7-B40E-4136-A8DB-8EEC7F592DFC}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2507,7 +2507,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2">
         <f>C2*1.1</f>
@@ -2535,8 +2535,8 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>B3*2</f>
-        <v>8</v>
+        <f>ROUND(B3*1.2+6, 0)</f>
+        <v>13</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" ref="C4:C11" si="0">C3*1.1</f>
@@ -2564,8 +2564,8 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <f t="shared" ref="B5:B11" si="3">B4*2</f>
-        <v>16</v>
+        <f t="shared" ref="B5:B11" si="3">ROUND(B4*1.2+4, 0)</f>
+        <v>20</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="0"/>
@@ -2594,7 +2594,7 @@
       </c>
       <c r="B6" s="2">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
@@ -2623,7 +2623,7 @@
       </c>
       <c r="B7" s="2">
         <f t="shared" si="3"/>
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="B8" s="2">
         <f t="shared" si="3"/>
-        <v>128</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="0"/>
@@ -2681,7 +2681,7 @@
       </c>
       <c r="B9" s="2">
         <f t="shared" si="3"/>
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
@@ -2710,7 +2710,7 @@
       </c>
       <c r="B10" s="2">
         <f t="shared" si="3"/>
-        <v>512</v>
+        <v>81</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
@@ -2738,8 +2738,8 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <f t="shared" si="3"/>
-        <v>1024</v>
+        <f>ROUND(B10*1.2+3, 0)</f>
+        <v>100</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
